--- a/frontend/public/examples/commute-template.xlsx
+++ b/frontend/public/examples/commute-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\python\64web\frontend\public\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB3EA93-D690-497E-A0D1-C9AA8CA5F412}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30CAB49-AAE3-4420-94D0-2A84CBFE3C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" xr2:uid="{BA3A494E-40B6-4798-8DA5-03A6B6826EAB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,9 +220,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66092793-B5C2-4E73-8753-8859FD87A19C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -552,7 +549,7 @@
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,14 +568,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -598,14 +589,8 @@
         <f>E2*D2*2</f>
         <v>2469.6000000000004</v>
       </c>
-      <c r="G2">
-        <v>1788.5000000000002</v>
-      </c>
-      <c r="H2">
-        <v>4891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>

--- a/frontend/public/examples/commute-template.xlsx
+++ b/frontend/public/examples/commute-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\python\64web\frontend\public\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30CAB49-AAE3-4420-94D0-2A84CBFE3C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD221E82-1639-4E04-B0B0-5E56A831E14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" xr2:uid="{BA3A494E-40B6-4798-8DA5-03A6B6826EAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" activeTab="1" xr2:uid="{BA3A494E-40B6-4798-8DA5-03A6B6826EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="類別3(員工通勤)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,15 +40,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通勤距離</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>上班天數</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動數據 (pkm)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -535,21 +527,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66092793-B5C2-4E73-8753-8859FD87A19C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,59 +553,39 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E2" s="4">
-        <v>252</v>
-      </c>
-      <c r="F2" s="4">
-        <f>E2*D2*2</f>
-        <v>2469.6000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="E3" s="4">
         <v>237</v>
-      </c>
-      <c r="F3" s="4">
-        <f>E3*D3*2</f>
-        <v>3175.8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -622,26 +593,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828C1625-3356-4003-AD2F-3DBD21AABA3E}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>24</v>
@@ -650,9 +625,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5">
         <v>17</v>
@@ -661,9 +636,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>21</v>
@@ -672,9 +647,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>20</v>
@@ -683,9 +658,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5">
         <v>23</v>
@@ -694,9 +669,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>20</v>
@@ -705,9 +680,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>21</v>
@@ -716,9 +691,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>22</v>
@@ -727,9 +702,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>22</v>
@@ -738,9 +713,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>19</v>
@@ -749,9 +724,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6">
         <v>21</v>
@@ -760,9 +735,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6">
         <v>22</v>
@@ -771,9 +746,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <f>SUM(B2:B13)</f>

--- a/frontend/public/examples/commute-template.xlsx
+++ b/frontend/public/examples/commute-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\python\64web\frontend\public\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD221E82-1639-4E04-B0B0-5E56A831E14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92C47D-71A3-49F1-B046-04DA493D69C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" activeTab="1" xr2:uid="{BA3A494E-40B6-4798-8DA5-03A6B6826EAB}"/>
   </bookViews>
@@ -71,51 +71,51 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>周建志</t>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>總出勤天數</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>郭志新</t>
+    <t>周潤發</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>總出勤天數</t>
+    <t>蔡依林</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -530,17 +530,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -568,7 +568,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -594,29 +594,29 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="5">
         <v>24</v>
@@ -625,9 +625,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>17</v>
@@ -636,9 +636,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>21</v>
@@ -647,9 +647,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>20</v>
@@ -658,9 +658,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>23</v>
@@ -669,9 +669,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>20</v>
@@ -680,9 +680,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>21</v>
@@ -691,9 +691,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>22</v>
@@ -702,9 +702,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>22</v>
@@ -713,9 +713,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>19</v>
@@ -724,9 +724,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6">
         <v>21</v>
@@ -735,9 +735,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6">
         <v>22</v>
@@ -746,9 +746,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6">
         <f>SUM(B2:B13)</f>
